--- a/silver/excel/int_supplier_metrics.xlsx
+++ b/silver/excel/int_supplier_metrics.xlsx
@@ -463,21 +463,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>FL1288</t>
+          <t>FL2900</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>S002</t>
+          <t>S010</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>maintenance</t>
+          <t>catering</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2090.16</v>
+        <v>5085.06</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -486,7 +486,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>FL4773</t>
+          <t>FL7875</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -500,7 +500,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2910.55</v>
+        <v>9831.780000000001</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -509,7 +509,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>FL3561</t>
+          <t>FL1344</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>5720.27</v>
+        <v>1759.58</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -532,7 +532,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>FL2825</t>
+          <t>FL5235</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -542,11 +542,11 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>fuel</t>
+          <t>maintenance</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>8492.559999999999</v>
+        <v>8480.870000000001</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -555,12 +555,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>FL3561</t>
+          <t>FL2734</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>S006</t>
+          <t>S009</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -569,7 +569,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2877.22</v>
+        <v>11339.45</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -583,16 +583,16 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>S004</t>
+          <t>S005</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>fuel</t>
+          <t>maintenance</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4567.27</v>
+        <v>24988.51</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -601,12 +601,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>FL3561</t>
+          <t>FL5705</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>S004</t>
+          <t>S002</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -615,7 +615,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>5720.27</v>
+        <v>3905.01</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -624,21 +624,21 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>FL4773</t>
+          <t>FL9519</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>S004</t>
+          <t>S009</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>fuel</t>
+          <t>catering</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>5720.27</v>
+        <v>14628.32</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -647,21 +647,21 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>FL9323</t>
+          <t>FL1990</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>S001</t>
+          <t>S004</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>fuel</t>
+          <t>maintenance</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>4567.27</v>
+        <v>24411.22</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -670,21 +670,21 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>FL9323</t>
+          <t>FL4736</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>S003</t>
+          <t>S006</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>catering</t>
+          <t>maintenance</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>7507.9</v>
+        <v>4262.9</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -693,12 +693,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>FL2825</t>
+          <t>FL3271</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>S003</t>
+          <t>S007</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -707,7 +707,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>5154.15</v>
+        <v>20385.32</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -716,58 +716,58 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>FL9519</t>
+          <t>FL6349</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>S003</t>
+          <t>S001</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>catering</t>
+          <t>fuel</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>4139.65</v>
+        <v>1759.58</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>FL1288</t>
+          <t>FL7466</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>S003</t>
+          <t>S001</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>catering</t>
+          <t>fuel</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1385.61</v>
+        <v>1759.58</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>FL9323</t>
+          <t>FL2792</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>S004</t>
+          <t>S003</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -776,7 +776,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>4567.27</v>
+        <v>1759.58</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -785,12 +785,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>FL4773</t>
+          <t>FL2240</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>S003</t>
+          <t>S009</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -799,7 +799,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>8338.84</v>
+        <v>4511.65</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -808,7 +808,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>FL1288</t>
+          <t>FL1541</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -818,11 +818,11 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>fuel</t>
+          <t>maintenance</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>5720.27</v>
+        <v>22156.97</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -831,12 +831,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>FL4177</t>
+          <t>FL5961</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>S006</t>
+          <t>S007</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -845,7 +845,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>4998.69</v>
+        <v>13109.55</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -854,7 +854,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>FL9323</t>
+          <t>FL1832</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -864,25 +864,25 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>maintenance</t>
+          <t>fuel</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>2956.84</v>
+        <v>1759.58</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>FL4177</t>
+          <t>FL2948</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>S004</t>
+          <t>S001</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>4567.27</v>
+        <v>1759.58</v>
       </c>
       <c r="E20" t="n">
         <v>1</v>
@@ -900,21 +900,21 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>FL9519</t>
+          <t>FL5986</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>S006</t>
+          <t>S003</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>catering</t>
+          <t>fuel</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>3212.42</v>
+        <v>1759.58</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -923,21 +923,21 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>FL1288</t>
+          <t>FL5421</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>S001</t>
+          <t>S005</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>fuel</t>
+          <t>maintenance</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>5720.27</v>
+        <v>7918.06</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -946,21 +946,21 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>FL8734</t>
+          <t>FL1832</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>S001</t>
+          <t>S008</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>fuel</t>
+          <t>catering</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>8492.559999999999</v>
+        <v>12168.11</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -969,21 +969,21 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>FL4177</t>
+          <t>FL5961</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>S002</t>
+          <t>S003</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>maintenance</t>
+          <t>fuel</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>2376.75</v>
+        <v>1759.58</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -992,7 +992,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>FL6596</t>
+          <t>FL5675</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1002,11 +1002,11 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>catering</t>
+          <t>maintenance</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>7296.47</v>
+        <v>23223.21</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -1015,21 +1015,21 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>FL8734</t>
+          <t>FL3883</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>S006</t>
+          <t>S002</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>catering</t>
+          <t>fuel</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>4823.51</v>
+        <v>3905.01</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>

--- a/silver/excel/int_supplier_metrics.xlsx
+++ b/silver/excel/int_supplier_metrics.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,20 +445,25 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>flight_day</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>supplier_id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>service_type</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>cost_usd</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>delay_flag</t>
         </is>
@@ -463,575 +472,650 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>FL2900</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>S010</t>
-        </is>
+          <t>FL4899</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>45830</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>S009</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>catering</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>5085.06</v>
-      </c>
       <c r="E2" t="n">
+        <v>5797.11</v>
+      </c>
+      <c r="F2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>FL7875</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>S005</t>
-        </is>
+          <t>FL7879</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>45799</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>maintenance</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>9831.780000000001</v>
+          <t>S009</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>catering</t>
+        </is>
       </c>
       <c r="E3" t="n">
+        <v>4601.24</v>
+      </c>
+      <c r="F3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>FL1344</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
+          <t>FL6117</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>45855</v>
+      </c>
+      <c r="C4" t="inlineStr">
         <is>
           <t>S001</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>fuel</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>1759.58</v>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>fuel</t>
+        </is>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>2091.63</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>FL5235</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>S004</t>
-        </is>
+          <t>FL6025</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>45837</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>S005</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>maintenance</t>
         </is>
       </c>
-      <c r="D5" t="n">
-        <v>8480.870000000001</v>
-      </c>
       <c r="E5" t="n">
+        <v>5796.61</v>
+      </c>
+      <c r="F5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>FL2734</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>S009</t>
-        </is>
+          <t>FL5283</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>45843</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>catering</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>11339.45</v>
+          <t>S005</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>maintenance</t>
+        </is>
       </c>
       <c r="E6" t="n">
+        <v>24343.19</v>
+      </c>
+      <c r="F6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>FL9519</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>S005</t>
-        </is>
+          <t>FL5082</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>45845</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>S003</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>maintenance</t>
         </is>
       </c>
-      <c r="D7" t="n">
-        <v>24988.51</v>
-      </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>6488.51</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>FL5705</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>S002</t>
-        </is>
+          <t>FL6133</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>45833</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>fuel</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>3905.01</v>
+          <t>S003</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>fuel</t>
+        </is>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>2309.13</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>FL9519</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>S009</t>
-        </is>
+          <t>FL6133</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>45833</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>catering</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>14628.32</v>
+          <t>S005</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>maintenance</t>
+        </is>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>9150.76</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>FL1990</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>S004</t>
-        </is>
+          <t>FL7808</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>45810</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>maintenance</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>24411.22</v>
+          <t>S001</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>fuel</t>
+        </is>
       </c>
       <c r="E10" t="n">
+        <v>2309.13</v>
+      </c>
+      <c r="F10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>FL4736</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>S006</t>
-        </is>
+          <t>FL1921</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>45786</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>maintenance</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>4262.9</v>
+          <t>S010</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>catering</t>
+        </is>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>2568.92</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>FL3271</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>S007</t>
-        </is>
+          <t>FL8234</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>45826</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>catering</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>20385.32</v>
+          <t>S001</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>fuel</t>
+        </is>
       </c>
       <c r="E12" t="n">
+        <v>2309.13</v>
+      </c>
+      <c r="F12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>FL6349</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>S001</t>
-        </is>
+          <t>FL4010</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>45848</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>fuel</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>1759.58</v>
+          <t>S009</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>catering</t>
+        </is>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>5198.15</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>FL7466</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>S001</t>
-        </is>
+          <t>FL6312</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>45842</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>fuel</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>1759.58</v>
+          <t>S002</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>fuel</t>
+        </is>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>2091.63</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>FL2792</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
+          <t>FL1013</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>45835</v>
+      </c>
+      <c r="C15" t="inlineStr">
         <is>
           <t>S003</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>fuel</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>1759.58</v>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>fuel</t>
+        </is>
       </c>
       <c r="E15" t="n">
+        <v>2309.13</v>
+      </c>
+      <c r="F15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>FL2240</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>S009</t>
-        </is>
+          <t>FL7499</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>45828</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>catering</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>4511.65</v>
+          <t>S005</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>maintenance</t>
+        </is>
       </c>
       <c r="E16" t="n">
+        <v>19653.44</v>
+      </c>
+      <c r="F16" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>FL1541</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>S004</t>
-        </is>
+          <t>FL6360</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>45824</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>maintenance</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>22156.97</v>
+          <t>S001</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>fuel</t>
+        </is>
       </c>
       <c r="E17" t="n">
+        <v>2309.13</v>
+      </c>
+      <c r="F17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>FL5961</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>S007</t>
-        </is>
+          <t>FL9611</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>45819</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>S009</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>catering</t>
         </is>
       </c>
-      <c r="D18" t="n">
-        <v>13109.55</v>
-      </c>
       <c r="E18" t="n">
+        <v>9827.09</v>
+      </c>
+      <c r="F18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>FL1832</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>S002</t>
-        </is>
+          <t>FL8730</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>45819</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>fuel</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>1759.58</v>
+          <t>S001</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>fuel</t>
+        </is>
       </c>
       <c r="E19" t="n">
+        <v>2309.13</v>
+      </c>
+      <c r="F19" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>FL2948</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>S001</t>
-        </is>
+          <t>FL4657</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>45806</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>fuel</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>1759.58</v>
+          <t>S002</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>fuel</t>
+        </is>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>1645.03</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>FL5986</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>S003</t>
-        </is>
+          <t>FL5076</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>45826</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>fuel</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>1759.58</v>
+          <t>S002</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>fuel</t>
+        </is>
       </c>
       <c r="E21" t="n">
+        <v>2309.13</v>
+      </c>
+      <c r="F21" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>FL5421</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>S005</t>
-        </is>
+          <t>FL9147</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>45821</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>maintenance</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>7918.06</v>
+          <t>S008</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>catering</t>
+        </is>
       </c>
       <c r="E22" t="n">
+        <v>4323.45</v>
+      </c>
+      <c r="F22" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>FL1832</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>S008</t>
-        </is>
+          <t>FL3823</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>45828</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>S009</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>catering</t>
         </is>
       </c>
-      <c r="D23" t="n">
-        <v>12168.11</v>
-      </c>
       <c r="E23" t="n">
+        <v>5276.45</v>
+      </c>
+      <c r="F23" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>FL5961</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>S003</t>
-        </is>
+          <t>FL2807</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>45825</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>fuel</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>1759.58</v>
+          <t>S001</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>fuel</t>
+        </is>
       </c>
       <c r="E24" t="n">
+        <v>2309.13</v>
+      </c>
+      <c r="F24" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>FL5675</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>S006</t>
-        </is>
+          <t>FL5653</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>45826</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>maintenance</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>23223.21</v>
+          <t>S002</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>fuel</t>
+        </is>
       </c>
       <c r="E25" t="n">
+        <v>2309.13</v>
+      </c>
+      <c r="F25" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>FL3883</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
+          <t>FL3206</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>45861</v>
+      </c>
+      <c r="C26" t="inlineStr">
         <is>
           <t>S002</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>fuel</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>3905.01</v>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>fuel</t>
+        </is>
       </c>
       <c r="E26" t="n">
+        <v>2091.63</v>
+      </c>
+      <c r="F26" t="n">
         <v>0</v>
       </c>
     </row>
